--- a/doc/定向流量开发计划.xlsx
+++ b/doc/定向流量开发计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Asiainfo-work\ITPL\定向流量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_self_workspace\DTDT\dtdt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$A$1:$K$34</definedName>
     <definedName name="_Toc480711750" localSheetId="0">计划!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>研发负责人</t>
   </si>
@@ -101,54 +101,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>订购服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务开通通知服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退订服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取验证码服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微信支付服务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>查询订购状态服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>支付</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>鉴权服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取token服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>服务请求参数签名防篡改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -181,14 +141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>返充话费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃家接口对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>订购退订接口对接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,14 +153,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>充值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台程序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刘延森</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -245,11 +189,99 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>冯晓刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>康会超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询可订购产品列表接口</t>
+  </si>
+  <si>
+    <t>订购接口</t>
+  </si>
+  <si>
+    <t>支付订单接口</t>
+  </si>
+  <si>
+    <t>查询订单状态接口</t>
+  </si>
+  <si>
+    <t>退订接口</t>
+  </si>
+  <si>
+    <t>返充话费服务</t>
+  </si>
+  <si>
+    <t>第三方退款服务</t>
+  </si>
+  <si>
+    <t>订购类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退订类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃家接口网关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订购信息接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘向鹏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>段萌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段萌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段萌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+  </si>
+  <si>
+    <t>研究源码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴权签名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待验证</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -353,11 +385,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,15 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,6 +464,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,11 +788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D2" s="10">
         <v>42914</v>
@@ -818,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D3" s="10">
         <v>42914</v>
@@ -842,17 +908,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10">
+        <v>42916</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="12" t="s">
@@ -869,12 +937,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10">
         <v>42914</v>
@@ -898,12 +966,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -923,12 +991,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -948,15 +1016,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="10">
+        <v>42916</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="12" t="s">
@@ -973,7 +1043,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -996,108 +1066,115 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D10" s="20">
-        <v>42915</v>
+        <v>42914</v>
       </c>
       <c r="E10" s="20">
         <v>42916</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="21" t="s">
-        <v>53</v>
+      <c r="F10" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
+      <c r="A11" s="25"/>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20">
-        <v>42919</v>
+        <v>42914</v>
       </c>
       <c r="E11" s="20">
-        <v>42920</v>
+        <v>42916</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="21" t="s">
-        <v>53</v>
+      <c r="H11" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>50</v>
+      <c r="A12" s="25"/>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="20">
-        <v>42915</v>
+        <v>42914</v>
       </c>
       <c r="E12" s="20">
-        <v>42915</v>
+        <v>42916</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="21" t="s">
-        <v>53</v>
+      <c r="H12" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="20">
-        <v>42916</v>
+        <v>42914</v>
       </c>
       <c r="E13" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="21" t="s">
-        <v>53</v>
+        <v>42914</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="20">
         <v>42914</v>
@@ -1105,214 +1182,233 @@
       <c r="E14" s="20">
         <v>42914</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="21" t="s">
-        <v>53</v>
+      <c r="F14" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>52</v>
+      <c r="A15" s="25"/>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="20">
         <v>42914</v>
       </c>
       <c r="E15" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>42914</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="21" t="s">
-        <v>53</v>
+      <c r="H15" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>52</v>
+      <c r="A16" s="25"/>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="20">
         <v>42914</v>
       </c>
       <c r="E16" s="20">
-        <v>42916</v>
+        <v>42914</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="21" t="s">
-        <v>53</v>
+      <c r="H16" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="20">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="E17" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>42915</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.8</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="21" t="s">
-        <v>53</v>
+      <c r="H17" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="20">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="E18" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>42916</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.8</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="21" t="s">
-        <v>53</v>
+      <c r="H18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>51</v>
+      <c r="A19" s="22"/>
+      <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="20">
-        <v>42914</v>
+        <v>42919</v>
       </c>
       <c r="E19" s="20">
-        <v>42915</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>42920</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="21" t="s">
-        <v>53</v>
+      <c r="H19" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>49</v>
+      <c r="A20" s="22"/>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="20">
-        <v>42914</v>
+        <v>42916</v>
       </c>
       <c r="E20" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="21" t="s">
-        <v>53</v>
+        <v>42916</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
+      <c r="A21" s="22"/>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="20">
-        <v>42914</v>
+        <v>42916</v>
       </c>
       <c r="E21" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="21" t="s">
-        <v>53</v>
+        <v>42916</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>49</v>
+      <c r="A22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="20">
-        <v>42914</v>
+        <v>42923</v>
       </c>
       <c r="E22" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="21" t="s">
-        <v>53</v>
+        <v>42923</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+      <c r="A23" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="20">
         <v>42914</v>
@@ -1320,24 +1416,26 @@
       <c r="E23" s="20">
         <v>42914</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="21" t="s">
-        <v>53</v>
+      <c r="F23" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="20">
         <v>42914</v>
@@ -1345,22 +1443,26 @@
       <c r="E24" s="20">
         <v>42914</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="21" t="s">
-        <v>53</v>
+      <c r="F24" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="20">
         <v>42914</v>
@@ -1368,22 +1470,26 @@
       <c r="E25" s="20">
         <v>42914</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="21" t="s">
-        <v>53</v>
+      <c r="F25" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D26" s="20">
         <v>42914</v>
@@ -1391,93 +1497,87 @@
       <c r="E26" s="20">
         <v>42914</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="21" t="s">
-        <v>53</v>
+      <c r="F26" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+      <c r="A27" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E27" s="20">
-        <v>42914</v>
-      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="21" t="s">
-        <v>53</v>
+      <c r="H27" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E28" s="20">
-        <v>42914</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="21" t="s">
-        <v>53</v>
+      <c r="H28" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
-        <v>47</v>
+      <c r="A29" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="20">
-        <v>42919</v>
-      </c>
-      <c r="E29" s="20">
-        <v>42920</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="21" t="s">
-        <v>53</v>
+      <c r="H29" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D30" s="20">
         <v>42921</v>
@@ -1487,20 +1587,20 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="21" t="s">
-        <v>53</v>
+      <c r="H30" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D31" s="20">
         <v>42919</v>
@@ -1510,22 +1610,95 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="21" t="s">
-        <v>53</v>
+      <c r="H31" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="20">
+        <v>42921</v>
+      </c>
+      <c r="E32" s="20">
+        <v>42922</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="23"/>
+      <c r="B33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="20">
+        <v>42921</v>
+      </c>
+      <c r="E33" s="20">
+        <v>42922</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="24"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A29:A31"/>
+  <autoFilter ref="A1:K34"/>
+  <mergeCells count="7">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/定向流量开发计划.xlsx
+++ b/doc/定向流量开发计划.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_self_workspace\DTDT\dtdt\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="计划" sheetId="1" r:id="rId1"/>
+    <sheet name="定向流量" sheetId="1" r:id="rId1"/>
+    <sheet name="支付" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">计划!$A$1:$K$34</definedName>
-    <definedName name="_Toc480711750" localSheetId="0">计划!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定向流量!$A$1:$K$25</definedName>
+    <definedName name="_Toc480711750" localSheetId="0">定向流量!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>研发负责人</t>
   </si>
@@ -61,34 +57,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>开发环境准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发/测试/生产环境准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境相关软件中间件搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境相关软件中间件搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境相关软件中间件搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -101,14 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>微信支付服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>服务请求参数签名防篡改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -129,18 +89,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支付研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>沃家总管日增量数据同步</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>支付退款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>订购退订接口对接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,10 +141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>康会超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查询可订购产品列表接口</t>
   </si>
   <si>
@@ -269,10 +217,6 @@
     <t>待验证</t>
   </si>
   <si>
-    <t>研究源码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鉴权签名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -283,13 +227,132 @@
   <si>
     <t>待验证</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发请求到支付系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验产品信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建支付订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付逻辑判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼装支付参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方接口下单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方接口返回结果处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预支付结果落库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预支付页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付结果页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方支付通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知客户服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付系统和第三方联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付和业务联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向流量平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机wap支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑网页支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动扣费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动退费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +391,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +424,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -409,11 +503,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -449,19 +567,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,6 +595,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -502,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,10 +752,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,7 +786,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,18 +961,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
@@ -810,12 +984,12 @@
     <col min="11" max="11" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -845,15 +1019,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="13" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10">
         <v>42914</v>
@@ -864,27 +1038,27 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="13" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10">
         <v>42914</v>
@@ -895,813 +1069,865 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10">
-        <v>42916</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42914</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42914</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17">
         <v>42914</v>
       </c>
-      <c r="E5" s="10">
-        <v>42916</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="E5" s="17">
+        <v>42914</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17">
+        <v>42914</v>
+      </c>
+      <c r="E6" s="17">
+        <v>42914</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.8</v>
+      </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="H6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="17">
+        <v>42914</v>
+      </c>
+      <c r="E7" s="17">
+        <v>42914</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10">
+      <c r="H7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="17">
+        <v>42915</v>
+      </c>
+      <c r="E8" s="17">
+        <v>42915</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="19"/>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="17">
+        <v>42915</v>
+      </c>
+      <c r="E9" s="17">
         <v>42916</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="18">
+        <v>0.8</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="17">
+        <v>42919</v>
+      </c>
+      <c r="E10" s="17">
+        <v>42920</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E10" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E11" s="20">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="17">
         <v>42916</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="18" t="s">
-        <v>39</v>
+      <c r="E11" s="17">
+        <v>42916</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E12" s="20">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="17">
         <v>42916</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="18" t="s">
-        <v>39</v>
+      <c r="E12" s="17">
+        <v>42916</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="17">
+        <v>42920</v>
+      </c>
+      <c r="E13" s="17">
+        <v>42921</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E13" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>60</v>
+      <c r="H13" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="20">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="17">
         <v>42914</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>42914</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>0.8</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>62</v>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="17">
         <v>42914</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>42914</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>0.8</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="18" t="s">
-        <v>63</v>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17">
         <v>42914</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>42914</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="18" t="s">
-        <v>39</v>
+      <c r="F16" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="20">
-        <v>42915</v>
-      </c>
-      <c r="E17" s="20">
-        <v>42915</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="19"/>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="17">
+        <v>42914</v>
+      </c>
+      <c r="E17" s="17">
+        <v>42914</v>
+      </c>
+      <c r="F17" s="18">
         <v>0.8</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="18" t="s">
-        <v>39</v>
+      <c r="G17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="20">
-        <v>42915</v>
-      </c>
-      <c r="E18" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0.8</v>
-      </c>
+    <row r="18" spans="1:11">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="18" t="s">
-        <v>39</v>
+      <c r="H18" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="20">
-        <v>42919</v>
-      </c>
-      <c r="E19" s="20">
-        <v>42920</v>
-      </c>
-      <c r="F19" s="21"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="19"/>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="18" t="s">
-        <v>39</v>
+      <c r="H19" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:11">
+      <c r="A20" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="20">
-        <v>42916</v>
-      </c>
-      <c r="E20" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F20" s="21">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="20"/>
       <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="20">
-        <v>42916</v>
-      </c>
-      <c r="E21" s="20">
-        <v>42916</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="17">
+        <v>42921</v>
+      </c>
+      <c r="E21" s="17">
+        <v>42922</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
-      </c>
+    <row r="22" spans="1:11">
+      <c r="A22" s="20"/>
       <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="20">
-        <v>42923</v>
-      </c>
-      <c r="E22" s="20">
-        <v>42923</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="17">
+        <v>42919</v>
+      </c>
+      <c r="E22" s="17">
+        <v>42920</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E23" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>39</v>
+    <row r="23" spans="1:11">
+      <c r="A23" s="20"/>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17">
+        <v>42921</v>
+      </c>
+      <c r="E23" s="17">
+        <v>42922</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:11">
+      <c r="A24" s="20"/>
       <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E24" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="17">
+        <v>42921</v>
+      </c>
+      <c r="E24" s="17">
+        <v>42922</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E25" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>39</v>
-      </c>
+    <row r="25" spans="1:11">
+      <c r="A25" s="21"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="20">
-        <v>42914</v>
-      </c>
-      <c r="E26" s="20">
-        <v>42914</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
-      <c r="B30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="20">
-        <v>42921</v>
-      </c>
-      <c r="E30" s="20">
-        <v>42922</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="20">
-        <v>42919</v>
-      </c>
-      <c r="E31" s="20">
-        <v>42920</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="20">
-        <v>42921</v>
-      </c>
-      <c r="E32" s="20">
-        <v>42922</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="23"/>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="20">
-        <v>42921</v>
-      </c>
-      <c r="E33" s="20">
-        <v>42922</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K34"/>
-  <mergeCells count="7">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
+  <autoFilter ref="A1:K25"/>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26"/>
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26"/>
+      <c r="B6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26"/>
+      <c r="B7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26"/>
+      <c r="B8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26"/>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26"/>
+      <c r="B10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="26"/>
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26"/>
+      <c r="B13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26"/>
+      <c r="B14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7"/>
+      <c r="B17" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7"/>
+      <c r="B18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>